--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291728.572734661</v>
+        <v>2288710.982333724</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>264.9170161915739</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>344.1623661071014</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>83.82466560786628</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>178.9687239363108</v>
       </c>
       <c r="F5" t="n">
-        <v>162.1753748811754</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>99.29033025312199</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>54.47872210664364</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>64.59540826652895</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>37.83808333974875</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>197.9218972121921</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>21.86696197154537</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.19955326292138</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5920542696381</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>132.2862074358171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.7557933333663</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>36.98116270600572</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498028</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>143.0690667171641</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>210.9685212521352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>119.2522674481654</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.27683016996381</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.7438101404433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>179.822365758362</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1979.715301186894</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1626.94664591678</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.94664591678</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.94664591678</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V4" t="n">
-        <v>2153.290992466904</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>2153.290992466904</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>2153.290992466904</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.91501986716</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C5" t="n">
-        <v>962.91501986716</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D5" t="n">
-        <v>962.91501986716</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="E5" t="n">
-        <v>962.91501986716</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.514859931282</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036576</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036576</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036576</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.06035969704</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.06035969704</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1630682837985</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>92.16326802213086</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>92.16326802213086</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>528.2078759112907</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5127,13 +5127,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="14">
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5498,31 +5498,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>467.029384136276</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>467.029384136276</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>320.1394366383656</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>151.9641149581862</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1260.980506241305</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1037.195091030811</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>748.0664522443694</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>493.3819640384826</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384826</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5741,19 +5741,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1365.293838804552</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1137.304287906534</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.72593422785</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>4571.72593422785</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4571.72593422785</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3745488722935</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="C28" t="n">
-        <v>684.3745488722935</v>
+        <v>284.9898097163888</v>
       </c>
       <c r="D28" t="n">
-        <v>534.2579094599578</v>
+        <v>284.9898097163888</v>
       </c>
       <c r="E28" t="n">
-        <v>534.2579094599578</v>
+        <v>284.9898097163888</v>
       </c>
       <c r="F28" t="n">
-        <v>387.3679619620474</v>
+        <v>284.9898097163888</v>
       </c>
       <c r="G28" t="n">
-        <v>219.192640281868</v>
+        <v>284.9898097163888</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>134.5718012643321</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W28" t="n">
-        <v>1133.156678913841</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X28" t="n">
-        <v>905.1671280158237</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="Y28" t="n">
-        <v>684.3745488722935</v>
+        <v>453.9259926442957</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4182.464659513464</v>
+        <v>865.353412881797</v>
       </c>
       <c r="W31" t="n">
-        <v>3893.047489476503</v>
+        <v>865.353412881797</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060205</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,16 +6695,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001782</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281743</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945776</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>4555.11514360128</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,16 +6929,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1444.091189578141</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1444.091189578141</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1444.091189578141</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.020508932908</v>
+        <v>1444.091189578141</v>
       </c>
       <c r="V40" t="n">
-        <v>4148.020508932908</v>
+        <v>1444.091189578141</v>
       </c>
       <c r="W40" t="n">
-        <v>3858.603338895948</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X40" t="n">
-        <v>3630.613787997931</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.2811958984813</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
         <v>527.3450129705744</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1206.202413828453</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>917.0737750420114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>917.0737750420114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W43" t="n">
-        <v>917.0737750420114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X43" t="n">
-        <v>917.0737750420114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.2811958984813</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,34 +7661,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8775,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622903</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208047</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>264.6560363650456</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>213.0220289556702</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>94.71427510461476</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>72.32875571396515</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>154.2367909007739</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644286</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>28.1580350341698</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>73.43808275826625</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>109.0685766066639</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>14.74113413690191</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338571</v>
+        <v>75.26883114644292</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.33238590392941</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>55.68752223382896</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.8408432116515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>41.72519530002728</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
         <v>547440.683632792</v>
@@ -26344,10 +26344,10 @@
         <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327921</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26485,22 +26485,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254457.4621147105</v>
+        <v>-254872.6766241776</v>
       </c>
       <c r="C6" t="n">
-        <v>335510.417099834</v>
+        <v>335095.2025903665</v>
       </c>
       <c r="D6" t="n">
-        <v>335510.4170998337</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="E6" t="n">
-        <v>-84418.17944713029</v>
+        <v>-84752.34841425985</v>
       </c>
       <c r="F6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="G6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="H6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626362</v>
       </c>
       <c r="I6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626361</v>
       </c>
       <c r="J6" t="n">
-        <v>264318.6378371732</v>
+        <v>263984.4688700434</v>
       </c>
       <c r="K6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="L6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="M6" t="n">
-        <v>305940.8417959288</v>
+        <v>305606.6728287993</v>
       </c>
       <c r="N6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626366</v>
       </c>
       <c r="O6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="P6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626363</v>
       </c>
     </row>
   </sheetData>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,16 +26811,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>62.83524227856105</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>42.07557254895215</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>128.3208733421526</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.56002855569136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>202.961646135951</v>
       </c>
       <c r="F5" t="n">
-        <v>244.700670860536</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>46.13071776980925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>170.5563833514406</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>284.6455604508841</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>97.12753845258948</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>27.1132082458922</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777537</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,7 +35662,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364240.651998529</v>
+        <v>2357223.637106819</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>32.44203069056119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>199.307871729613</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.908481403325515</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>15.94493529275736</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>85.72834075468934</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.15874962485204</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>139.4384002192466</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>297.554655115508</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>111.6943500844841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113187</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>109.4716959948898</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>34.26584747916387</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.8316465231201</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.6183461988018</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527399</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>216.2479102458288</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>201.6473422926468</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229362</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.14085215534952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>253.1488561805832</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.86336435618615</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120382</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.4248296855892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274179</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>221.9323490168575</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>33.37492496329428</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6864005999555</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>100.0676235976745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.87916681139878</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.111371249201</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>721.1507201626711</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2376265802779</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>76.99447781477738</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>70.04897706557391</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2555.52611795812</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2555.52611795812</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.06035969704</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
         <v>246.4894537511405</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>428.1379185813802</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1504.400259589023</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1504.400259589023</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1504.400259589023</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.400259589023</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080548</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>487.5044752204267</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>487.5044752204267</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>319.3291535402473</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5232,19 +5232,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1240.518888196738</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>985.8343999908507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>696.41722995389</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558727</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5317,13 +5317,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>799.6537879979917</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>630.7176050700848</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>630.7176050700848</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5469,19 +5469,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609669</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609669</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>799.6537879979917</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5676,10 +5676,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.564027901911</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>791.4353891154691</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V19" t="n">
-        <v>536.7509009095822</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,22 +5752,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728305</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904373</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1432.107328986843</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843313</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3686.322319899657</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>3517.38613697175</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014291</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014291</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808405</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771444</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873427</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>3867.970784729897</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6226,52 +6226,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>157.6851362645143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>157.6851362645143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>157.6851362645143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>157.6851362645143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,34 +6478,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188989</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>709.4512536188989</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>709.4512536188989</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>573.668597370829</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.956765431391</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,52 +7168,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,58 +7405,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1197.917852799036</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>908.5006827620754</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>908.5006827620754</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.7081036185452</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298099</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.44213237264634</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>251.9715049194135</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>40.60231612344904</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>60.09130919023531</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>5.299650812560401</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.5900101059305</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>159.5688032336876</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.8451328388529</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799413</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>106.6302041071914</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>30.90698584635106</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.15982366650562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>64.30500338171984</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>253.1480733732967</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.14557958198182</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>152.0700197261535</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166316</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>124.705486540696</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.66962143905</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.66962143903</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143903</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143903</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.66962143915</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26481,37 +26481,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241775</v>
+        <v>-254872.6766241774</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903667</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425986</v>
+        <v>-85726.93967398154</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029148</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700436</v>
+        <v>263009.8776103217</v>
       </c>
       <c r="K6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.096802915</v>
       </c>
       <c r="L6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="M6" t="n">
-        <v>305606.6728287986</v>
+        <v>304632.0815690776</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.096802915</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26819,16 +26819,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>332.8308610804464</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>214.476298291182</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>141.7069916148868</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.8392347280376</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>242.0239177154456</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>182.8763558332322</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>242.4919698530151</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>30.19760335462695</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.8903032676107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.705918827272586e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.487406060387629e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.487406060387629e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.933230100285637e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357223.637106819</v>
+        <v>2362162.89995585</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>95.54854747681578</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>199.307871729613</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.94493529275736</v>
+        <v>137.3645982698413</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>136.128638728132</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.31940075816885</v>
       </c>
       <c r="V8" t="n">
-        <v>297.554655115508</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690829</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>20.82402696096919</v>
       </c>
       <c r="H13" t="n">
-        <v>109.4716959948898</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.8316465231201</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.183157748217</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>201.6473422926468</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>147.5945833099641</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>253.1488561805832</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>190.6405752120382</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274179</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>33.37492496329428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>143.9705362099828</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.87916681139878</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>819.715945170047</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>819.715945170047</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>408.7300403804394</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.010945960184</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C5" t="n">
-        <v>821.0484290197721</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D5" t="n">
-        <v>462.7827304130216</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E5" t="n">
-        <v>76.99447781477738</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F5" t="n">
-        <v>70.04897706557391</v>
+        <v>519.8898212488479</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960184</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>360.4464575649937</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>191.4466573033261</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.3537517307267</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C13" t="n">
-        <v>635.4175688028198</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D13" t="n">
-        <v>635.4175688028198</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="E13" t="n">
-        <v>487.5044752204267</v>
+        <v>527.0940094559511</v>
       </c>
       <c r="F13" t="n">
-        <v>487.5044752204267</v>
+        <v>380.2040619580407</v>
       </c>
       <c r="G13" t="n">
-        <v>319.3291535402473</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5360,10 +5360,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.6537879979917</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>630.7176050700848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>630.7176050700848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141522</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141522</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X16" t="n">
-        <v>1020.446367141522</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.6537879979917</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.446671213422</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5743,31 +5743,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,16 +5928,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028587</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1019.424940013486</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>764.7404518075996</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>475.3232817706389</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,28 +6402,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1306.350032969985</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.221394183544</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>762.5369059776569</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>473.1197359406963</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822473</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775513</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.3055067228584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C37" t="n">
-        <v>413.3055067228584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383447</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>641.2950576208757</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>413.3055067228584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.3055067228584</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="38">
@@ -7171,49 +7171,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,13 +7350,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1382.222354598087</v>
@@ -7374,10 +7374,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>561.6946978510161</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.7585149231093</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>242.6418755107735</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>242.6418755107735</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>242.6418755107735</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188989</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W46" t="n">
-        <v>420.0340835819383</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X46" t="n">
-        <v>192.044532683921</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>743.3431626812559</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298099</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978135</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6695415024084</v>
       </c>
       <c r="H13" t="n">
-        <v>39.44213237264634</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.60231612344904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>27.33984058837405</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>84.5900101059305</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>70.99007004213072</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>33.08849621799413</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>30.90698584635106</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.118140440917699</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>253.1480733732967</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>22.52303225339477</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26082,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.705486540696</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327916</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327921</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26432,31 +26432,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26481,16 +26481,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241774</v>
+        <v>-254872.6766241777</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903662</v>
       </c>
       <c r="E6" t="n">
-        <v>-85726.93967398154</v>
+        <v>-84849.80754023218</v>
       </c>
       <c r="F6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="G6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="H6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="I6" t="n">
-        <v>439433.0968029148</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="J6" t="n">
-        <v>263009.8776103217</v>
+        <v>263887.0097440709</v>
       </c>
       <c r="K6" t="n">
-        <v>439433.096802915</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="L6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366639</v>
       </c>
       <c r="M6" t="n">
-        <v>304632.0815690776</v>
+        <v>305509.2137028268</v>
       </c>
       <c r="N6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.228936664</v>
       </c>
       <c r="O6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="P6" t="n">
-        <v>439433.096802915</v>
+        <v>440310.2289366642</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,16 +26819,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>287.1852941866648</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>214.476298291182</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>9.586823883069997</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8392347280376</v>
+        <v>276.4195717509537</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.3051017946059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>20.04225011366313</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>216.9047667501204</v>
       </c>
       <c r="V8" t="n">
-        <v>30.19760335462695</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958058</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
